--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/81_Zonguldak_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/81_Zonguldak_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4A20E8-8248-4BC8-9ACB-512C83937303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E391B3C2-1D8B-4C1C-8FFE-8B6C7CDFE0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="668" xr2:uid="{F282733D-1D8D-410C-9C75-ECDC4577F308}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{4D5CF233-AAE4-4ADD-BD22-5D349E88ED60}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="124" r:id="rId1"/>
@@ -1030,14 +1030,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{4180F897-991C-46D8-BB09-CD710E3F10E2}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F6820DA1-B337-4E98-8E6A-3FFD35123307}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{C4A1E7E7-0E1A-4ABD-9F25-E6988F61F8F8}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{C6DE6ED7-55B0-454B-B58D-CBF132462C39}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{82164D9F-1DAD-4316-9054-72A858CF6976}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{6F07122B-0556-43AF-AD3F-B18D0523D8A6}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{4803E9B3-6554-41A1-BC83-39136EEE0A9D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{F2EB70D0-6F86-4797-8343-E6D79C9B85B1}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9598FE6B-ECBE-49B5-992A-8A3CDD372A89}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9A1F0931-C67F-42B6-964A-69C00573F69E}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{0B231831-088B-4C1E-A52E-217A1045E835}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{55C5D5B8-1101-49DB-94C7-1B1D99A42228}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{69127080-073E-4056-A27A-99B89B0496DC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{9683729C-5853-46F3-9965-D5FD887A2DC3}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{69CA769F-E775-41F0-A288-A8B3236C5878}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{7DAC9DB2-F6AE-4B95-B6D0-FC2211920A61}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1407,7 +1407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A95532-318F-4A66-BDA3-674876D302E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF01C6F-B412-498D-BA84-C0F1505F0807}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2689,17 +2689,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F9569C68-CE98-48DE-8E2F-20B0D0EC8133}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{276F274B-0811-481F-AE4C-9AD43C9A3A15}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{010F63EE-76C7-4030-A31F-5B740042449B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CC466B51-82F4-4418-9F30-C539F0525D99}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9A7EF964-7A35-45C9-91A0-C481CA9DA9E1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C54C2965-11C5-4F13-A8B8-F836899827B2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D359BA22-13E8-482D-97F1-7517874FE1B2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FECAA9F6-93C1-45BF-A06C-C34263E9E042}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{287428E4-3453-49EA-B9DE-53BF4BC4D79B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8F7757A8-839E-4183-86DC-BCD1114A3BA9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9AD1E2DC-A6B4-4019-8D20-3C39FB7AA7AE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{231E1B4D-DBA9-428E-A970-D3E19FE51CA2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C759222-9684-4F32-9C08-B904BC977393}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{79A649AF-0227-45FA-9329-E1DA216D702C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{94526C87-4D80-4F34-825B-881C05F12ED2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ACC00D7B-6A05-41D9-88AC-7F4F9B0A4B71}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C776BC85-DA0E-4D35-A3CA-49EBE588149A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{412C280C-B607-449E-8340-0B90F7B5C4EF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A240BDB-52F5-406A-A4B6-8A451EA897FD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{79C9B1E1-571C-4F35-B3CA-4B5CCF75B60B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A9DE2879-A878-4AA3-9773-7BCDCF26F310}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C3FAD25-3A20-428D-BB14-165F090D64DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2712,7 +2712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8855C15-830A-4BA5-AA99-CF030764EC10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379C110A-3CA2-41AE-B37C-2CB4556AF856}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3979,17 +3979,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0406AC16-17A9-4A3A-9679-37FC152FD93E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{72E0E4EF-0A2F-4ED0-9464-0545CBD6DD8D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FE604A2E-51C3-48C1-A6E7-592B27E29D5A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6A2D88E0-A76A-4FD1-9F7B-4B5CBB37BC8C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1479A80-C769-4367-A92F-045812C2F5C0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5A307D84-8D16-42EA-8BEB-18CA398D2F7C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{02ACD939-1FE4-45A4-8921-5B1220BEA180}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{56E0FB42-BC21-4144-B909-19FA024A6AB7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{10D80BB8-241F-4D53-ADE3-A97E443FD056}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4CF28B19-CE19-4542-87E6-FA9B636A8389}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB880F70-C16D-41CD-9F3F-FDD605AFBF3D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90ADB175-321C-44C3-926A-FEAFBDF010A2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFF8BF58-7DC9-4FA2-99F9-202D33077699}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3C78BBFB-6576-4D0E-B31E-A3CDE815202B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AA067F15-CBA6-4C4C-ADD7-1FAEA3B263E0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{58518C4F-B34A-4D65-BFF7-7F41607EDB55}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B01CCE6-FCDC-4141-9C71-48E5AC455F56}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F335A80-44BC-4607-9113-A16BD9B79DAE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8170589B-D8D5-4CA6-A585-F290BD9EF471}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AE0D3941-69FF-4716-8A0E-860539266FA7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{493C5CF3-DECD-4678-9642-EAED48E4F1D6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F2BF966-1E8C-48A7-A88D-52E7FD7FF443}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4002,7 +4002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAAABB0-76EC-4949-B0B4-677E5A5B9743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68B9F66-2E5E-4BA7-89A1-6A847D3D509B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5269,17 +5269,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{284D4278-2DAD-426F-BBA4-F5AC20F2ACCE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3BE8F3C-9E65-4AB9-A4C5-32F8801111E8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6BF0A4B7-0301-41C4-9FC4-3DD019EA7DD0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{29C9EBBD-8FBE-48C0-8556-F7A31C35E69B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DDA91E88-0CAD-4407-8C0B-1092300FB1A6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AF00C517-0B6C-41F8-9E72-A37ECE9F0FA1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA96A250-6284-411B-8867-EF9F7227B865}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43658C02-2BD6-4326-8024-46E2F0E46559}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{12564EA3-995B-4CD6-A95B-B4C2EDFF5383}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{021D96BD-F251-47AD-843E-718C7BECD7CC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BA38D9DE-6A8A-4486-834C-2F6850FDCEEB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{789A7803-58E2-4C22-9636-BBF1F93247E7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{54E3D4BB-C952-4E8C-B2BE-A1F115C1C488}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{664A9807-59F2-4E60-AEB7-DF44606851CE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D2C53354-0C62-4C7E-8F39-A5453B538D79}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{15893C0B-4E3B-4DBE-9CC9-051886A6BB3D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39EAF24A-B9EC-4A90-8385-A87191075478}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CAFB3D5-5A7E-4378-8DCC-4B22651D2187}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{34904BF7-1C9A-4527-87B6-DF2FB71583D9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A17F1CB4-C377-4844-872C-93F696A774E0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9B2F3C81-1D3B-4E35-B6BA-A4E6C198B7BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F7B4CA70-9407-4F6A-BEB3-A09F683979D9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5292,7 +5292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD98BBE-717E-4878-AC75-116FA4E9ED10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1019F72F-7BFC-4BDC-9953-C9B8718A0D8A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6561,17 +6561,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED6203EF-DA9D-4C25-81E3-D6C18DF6B99A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F2DB39C-BFDE-417F-ACDC-68AF58534C7D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{780E5F45-FFA3-4BEA-88D5-94275C85500E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{934F47EE-8C72-43C5-B70A-D0438CAF8DFC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{86CA700C-A20D-4C89-9B17-F5DAC9583125}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F39C0193-0F74-4346-9C5C-DA72D831E189}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6FF6EE99-A029-4D2B-863B-0CA47687FE24}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0349509-45DC-4EA0-91CC-24CE7D0CA5A2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F57A145E-CE76-433D-908B-2AA269705151}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B56936B6-9B35-4C93-9F01-45EDFB971444}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{27CB71D4-968A-4595-892E-1DDB14BAEC68}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9659CC53-4D09-4F9D-BBF1-DDB91F788247}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{09DC243E-CCFE-4B16-A764-577F24A2F2B7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F61DA2F2-1659-49DD-AB5A-F3EA0E4D8283}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3327F008-599D-4231-A12F-401614696B96}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3EFD7885-F98C-460A-8570-85D21C4C4637}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F71D2286-71FE-40BE-824D-701CCCE2C722}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{890D4816-6118-4DEF-A572-871086FBDCBE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17AE738B-D1E0-466B-ABC9-1CA8392CE0C2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{00489541-2218-4561-8204-03D4582ACFF3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1C852E5D-8BC4-4CB0-BDC8-DF06D72BCB53}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{00DF44D2-7E6A-4FD7-97FA-584C442F5A39}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6584,7 +6584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D58BD9E-DB93-405F-BAFE-9AF6F5A2B1CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED10D6E-1719-4A87-976D-41FE16BB64C6}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7867,17 +7867,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D373F20A-4F1B-43E1-B976-D162E801BFE8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5B89FE9-52D2-4006-820D-9F7562DEB970}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C4D71EF4-B663-4E38-A621-5B189FB62A26}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{97B41CED-AE0C-40D7-889E-1BC604E8BB39}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D1D07C23-1CDD-424C-9B93-AE25443360A3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1B2EDD3C-6F62-46C7-A5F8-3F57D1CB2C6C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1C6B6748-44CB-452E-8F90-15BD18745048}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D3E08481-026B-4C03-A25C-7E819A497DA0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3A44A932-61EB-4C33-A12E-6CAA74C16FD8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5F5C31C5-772A-445A-8328-3575BD8F390E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F6329426-A50B-4D6E-BA8B-481A29053FA6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52DEE354-CEEF-49A1-AD75-28F427AABCE4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC029720-8982-45B5-A3B6-BEE5AEF434A3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{920A73A5-24F9-4B54-9C37-8292AB869055}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{255D87E2-751E-46CD-B267-7AF96EE79148}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D10F4179-D398-46C5-8296-532B630C8630}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D02A271E-5288-4A25-BC6B-3F5FD86AAFDA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{998CF11B-575E-4828-8DC6-4FC7541C83FA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3E3A7E82-A7B0-4BAE-89EE-BF9BCEF5B66A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{967FF728-74DE-47C8-A1D5-AA95864510BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{20D86459-7093-4783-8CCB-8BB906EE73A9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{228FEEBC-82EF-464A-90C4-AA96E7DCE119}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7890,7 +7890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C5E1B8-1BDE-4193-99F0-49893C154537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D89E86-5315-4F21-B55B-42E5EE3C0A4A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9173,17 +9173,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{435696D5-BB39-4656-BACA-6C4CD6C89652}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D3EF423D-24A1-4373-9018-BBA5BF7D0F78}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CE88E352-20E0-4E2D-B31F-24BA6E0170E0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9402E781-5FC3-4441-922B-14AF1A1C3545}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{57C7DFFD-BABD-46AB-B3F7-FE61E25BF2F8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D1CE0699-7082-4FC9-B831-56FC9E3ABDE4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86859FC8-B4C1-4D9C-B895-6180681F5BB9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67AAE972-AC77-4C68-A28C-8A3F7D21C797}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{106BAE1B-CBF6-4B0B-B961-5F3E2D09CC26}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F0BE4288-0B47-4F6E-A36E-A1CCD9DDCC51}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A4411F15-7F1E-43EF-B692-7E20D6CD8302}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72105A74-BDBE-41FC-A7C5-E219D71A7474}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E6AF0F57-DDC5-4281-8680-1E7E1E5AF9F6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{01479F63-3A1E-405E-99E2-08B1F280B5B3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8550ADC2-1293-4BB4-83B9-CA121C35DFCC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{979BF893-9BA3-43CD-88C2-8CF0E4C2CC46}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{797A8DBC-7FF4-4E27-ACB1-ADBF047AC9B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43C4318C-5A61-49C1-AECC-9E866510F32E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ABCCFED3-9153-4B8C-9E45-ADCB0FC8E710}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A4E9C8A6-9839-4EA9-9984-3FABB1A861F8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0700435B-9A17-46BC-B9ED-E758D93556F8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C799AE39-F86A-4C1B-B38F-202479FCA622}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9196,7 +9196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23500DCA-7984-4DF3-A0AB-AA9AADDD3AA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3F5FA2-F9DF-4D12-800D-C33B955323DE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10475,17 +10475,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{905A7B15-85BA-4017-9ED4-5E2FA871E8AC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9BDD0328-F75F-499C-AF65-99E2447E93B2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{65CA97FE-913A-4B39-80A7-DA6016B4F7C4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{64AEE0A8-D9C3-4055-992A-20B8C8668F76}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2DA99AB2-C2DE-4AD8-BA81-D8B8664CE79E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A6D62135-A068-4D10-A6BA-34AFAEE8768E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{855902F4-AC3E-4962-9D18-FC83B59071E8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3663A33C-5975-4141-8033-34F3769D0DEF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9AECE86D-5786-4ABB-A4B8-7003E4C1557A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{84B8BCCD-988C-483B-9852-4F257E68CDF1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{00D611D6-7C33-4333-A53D-D65270C8CB1F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{287D3D4D-CADF-4F23-B75F-E106175977E8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41E6F65B-941B-49A0-92CB-0DFBBD597C8A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7066A393-F4B2-4F46-9BC1-95AF024DDD9D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B826C012-8978-4DE2-A633-6A8A31671097}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4925A4CE-34FB-4E6E-9B75-02B60F00B1D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E4984CD7-0905-4C3B-9381-EA47B0FE04DF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BB901AC8-A753-41AA-881A-4A039DC16B4C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2D5F44C-9F04-494D-9E4F-C6CC4DF35D40}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8C6146E6-CAA3-47CB-AE55-85B9AEFBE596}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{23E4150E-D3F9-464A-90ED-F7D58B286266}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E65C28AC-A09E-4E94-BC75-037C73447724}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10498,7 +10498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D3F430-121E-45BC-B6A1-143FF5A5DD46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1B0CF8-4FB4-462C-BC3F-F6A204EE511B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11777,17 +11777,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C7C3378-A9B7-42B8-ADAF-E043243E57E9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{396BE046-31A1-4B7B-9BA4-366009928130}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FB8CBCD1-3E2B-4EBE-B17B-D4D6251A3483}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B68E00B9-CFD4-4AE2-88A2-053F5B6DB739}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{35A4568F-86ED-428C-AA2D-D530EC7EFA73}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A6AB165-BE89-44EA-A20A-7B1D478A2BA3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6D559C1E-878B-400D-B1C1-B9C3BFE0DC6A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1BF057B2-0649-4B87-86CD-DD804CBBB5D5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0D3D65C9-4D0E-44A8-9AF0-DB8E970293CA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7A8DA579-7497-4534-A518-39B9FF21FDAC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31A92B53-5119-4895-BF10-C25610D8C2B2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98B28BC2-E501-4596-B2BE-E7FBE497D747}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F622666-B97B-44F4-9DB3-3AEB83714AEF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{896AA02E-8E17-4C38-AFDE-70EC56DB7041}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E4E6C7D2-296A-41C3-A8FD-0C2FF0CF19A3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC0BA599-85FD-43A2-B409-3BFB09B0E130}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{17A513F6-545C-4C05-87A3-5381C85E683F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{36D3C9A5-B7AC-4998-A88E-2BEC80B91594}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6B54721-BA38-42C7-83D2-667CE794C401}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4EEF89A3-8FE7-445C-A914-158D0F8C57D3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4A789E3B-69B2-4C5C-9843-4FA263189166}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{653D202A-B3B8-4927-A590-DC1DC8224C90}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11800,7 +11800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178C3719-2705-40D9-839F-36C03BB2284A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873BB9F7-8778-4506-BE72-379C0D6F2B3F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13075,17 +13075,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07F0A2DB-10BC-426F-B98A-781D7806499E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7A5DDE8-5D96-4897-A0A3-3A82975B07F8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{66B7E7F4-4107-4D72-9604-69F274A746F1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{42E598E2-3A5E-4088-BAAD-A7ED254A4EF9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{265C065E-5E1A-49FE-B867-78FDDB45FDAF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40975D7E-5325-41B9-BA0F-DE6D82AAC8A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{71A8CD06-A32B-4229-B2E0-C0A187F1E87F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F68E7B4-F1B9-41B7-A977-6F01DCB83372}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{55610341-37A2-4833-83EB-84E8761299E4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9B29E530-7828-413C-A1FB-35306FCB8380}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6FAE1941-FC0E-4D55-8E11-A54D5BD6679E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E31F321E-B1BE-46D7-AA22-1F71705C6385}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{05B79627-5CC7-49B1-B6B4-4D624D7DC89D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AB143BEE-7315-4FEA-9EA6-9346FC97FA98}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D37D9DD0-291A-48F3-800C-AB42AEE451CE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8A43BCE5-A76D-4B5C-8D03-7FBF32DAD182}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6A7ED5A1-C78B-4BF8-85D3-74024E5D6984}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8B987356-486E-4CF2-AB05-C7DF27F1EF91}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5CD6D4AD-5389-4AD9-8F83-3C4397166BBD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E0C5EEF7-0D60-4487-B573-A61FE9631B2D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8706D64A-26E7-4257-979A-2A003F499CA8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8FF7BCEE-EB63-4765-9F19-15045D8996CA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13098,7 +13098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBADBCB7-ED47-49BF-B184-8488337A60E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5308996-B676-47D2-A334-B692AD4BFBAD}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14373,17 +14373,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D2904DC-23CB-4256-8AF7-9BC034CA29F9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3EED3A7B-5DEF-4FB1-81F5-2005405DFA3F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9C640A52-B3A8-4BF6-B1D6-0F03209D89E6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A6A17B41-97DD-419E-A3BC-D9E4F6B443DB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F3CCAE9-1388-4F06-B85A-79F0F156B4BC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5AA887BE-FCC9-464D-9F3C-300233D9BE1E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6FBD3DC2-8E14-4297-A9E7-2BE6635BF82F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2EFA8D15-F7EE-4445-B2C4-F62E8A120666}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E0D283FB-3A21-47CE-BCF2-35239C810667}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B65F8192-8681-401A-A0E7-BBB1D3356A0F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E159AB7-5AB3-4BA1-ABB6-B2B6D607061F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{383E0F12-CD19-4E05-B8FB-BC327B383699}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BF2C6184-B99F-4506-A5C5-E108B4306A0F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F966F998-70E4-4071-A38A-01E47390B283}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7CD07D0A-05E6-463E-A5D5-C3C4AEAA2687}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F2C6F74F-1164-4D3C-B724-C06E117984A0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0B2153D9-C2B7-4D0C-A909-4F1269E75A97}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25482B22-8EBC-4969-A6F0-5A9B3F7C4D27}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9739658-1D98-4F53-AD43-7798E7734581}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8040BBEA-A3BF-4F47-8662-68AA4DCF37BE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{72D4B305-28CC-4144-87D5-9C75DE002CB9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B34AA8F0-F568-424F-9373-BBCAB7D45474}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14396,7 +14396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CFF1CA-FA89-4612-A4DD-CFB759951DF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD94F57-FD1A-4D9F-912C-B803360A94F9}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15671,17 +15671,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F99BA899-767C-42D0-A98E-AE8710BE2BA7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F851514C-36CA-45B9-A68A-F44883323D82}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3FDD0584-EF9C-4AA6-A1CE-FDCA2833A8F4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F704121A-4EDD-4772-996E-E4E1C84645F4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C01FB892-AC15-4BCF-9E8F-F4E380D07148}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DBBE7DCB-12FA-44C4-8A53-66831207C96E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62CABE67-160C-4844-AC0A-D6C1E448594F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86C6C088-A980-4600-BCD8-F29C0BBF70A6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{19A68687-E8ED-4535-8CEA-598DB835BA6D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9008011E-91E2-4C24-881B-871CD3F7E5AA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C263D61-452E-4269-B265-45AFCA082E01}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72280BB8-7C64-4F1D-909E-58D7804CB7D0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1ADE6E4B-3D3C-4EAB-8473-06CF4CC26584}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{42BAA899-AEC4-41BA-B1DB-5CFB11CFE503}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{415AE307-DE20-4061-A49C-9F7DC6888DA1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{64E30F49-6525-447E-8AF9-627BED4B6E50}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{58E95AD9-874E-4D98-B305-C04F0B8C1D9B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E497B99-1C94-4A42-929B-16F72FEE922E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D0ACA02-BA33-4B49-BD15-E9A665DE648F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{91732732-57A0-42D9-88AA-3447079195D5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9A15E9A4-E1C9-447F-AADB-1C00ABDDCCDC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78752F00-5F64-43E1-81D6-2E4C1319FEAD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15694,7 +15694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC497372-1B8A-4015-9577-EF4E08113D8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9733F26A-B703-4BA1-A52C-8B7F55F58E4F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16965,17 +16965,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F08EF0E-B4F8-49A9-B77A-EEF9084DF7BE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{83892E01-A2AE-46E0-A423-F20FCD272814}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CBF437C7-B292-4D6B-8752-C90F6F029B9D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{34339C56-F238-430A-A970-8D68E09E5F54}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C7A167F-50D8-40CD-818A-1C32CF7953B9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{11CE5392-E59B-4571-B86F-8AF4A46604EC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{36E509EB-264D-4D7E-8080-17FD5721C88A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{97864448-D938-4A77-B762-CD6F466F11C4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DC5C611F-844B-484D-A64F-B86A3A14E123}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{72F7B52B-64EB-4040-8D5E-5582C6DC86F5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31D2853E-01E1-4B1F-8D24-DFDE8C125AA0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A72C37BE-01F1-49FE-9A85-1C2D76EC8F48}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1DA5A41-7764-4805-84F7-3EB86ED47B4F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E6FA4861-1612-471C-8AA8-9031B2300288}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{38D6F63F-38E9-4607-83C8-C8A4548A460B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE0260A4-33E8-482B-AB63-CFE321FFB556}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{51249681-B640-4763-B95C-BBFBA610B056}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5D256C3-B335-4218-B204-6056058315D4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{360A90D8-A032-4F08-A185-3A6CD0E3DBCA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3E3392F6-760D-48BA-BEFC-136E1D42CD9B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D97FAE76-041B-4B80-8866-6CA7C30D9AD5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1A0BD7A-6213-4D55-B30E-BECDD4A5D6CB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
